--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pepet\Desktop\Faculdade\2_ano\Sem3_PI\sem3pi2022_23_g063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsaf\Desktop\SEM3\sem3pi2022_23_g063\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F397EB4C-D94B-4029-AD56-CD50059EAC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56FC88-7835-418A-8356-239A9D93B1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1528,7 +1528,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1827,7 +1827,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2016,12 +2016,24 @@
       <c r="C12" s="16">
         <v>1211572</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
+      <c r="D12" s="16">
+        <v>4</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12">
+        <v>4</v>
+      </c>
+      <c r="G12" s="18">
+        <v>4</v>
+      </c>
+      <c r="H12" s="16">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
+        <v>4</v>
+      </c>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -2031,9 +2043,9 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="20" t="e">
+      <c r="S12" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2066,12 +2078,24 @@
       <c r="C14" s="16">
         <v>1211681</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="18"/>
+      <c r="D14" s="16">
+        <v>4</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4</v>
+      </c>
+      <c r="F14" s="16">
+        <v>4</v>
+      </c>
+      <c r="G14" s="17">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12">
+        <v>4</v>
+      </c>
+      <c r="I14" s="18">
+        <v>4</v>
+      </c>
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
@@ -2081,9 +2105,9 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="19"/>
-      <c r="S14" s="20" t="e">
+      <c r="S14" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2359,7 +2383,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="1"/>
@@ -2375,7 +2399,7 @@
       </c>
       <c r="I25" s="26">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J25" s="26" t="e">
         <f t="shared" si="1"/>
@@ -2504,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2605,9 +2629,13 @@
       <c r="A6" s="33">
         <v>110</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="39">
+        <v>1211681</v>
+      </c>
       <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
+      <c r="D6" s="40">
+        <v>1211572</v>
+      </c>
       <c r="E6" s="41" t="s">
         <v>37</v>
       </c>
@@ -2631,7 +2659,9 @@
       <c r="A7" s="33">
         <v>111</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="39">
+        <v>1211572</v>
+      </c>
       <c r="C7" s="39"/>
       <c r="D7" s="40"/>
       <c r="E7" s="33" t="s">
@@ -2657,9 +2687,13 @@
       <c r="A8" s="33">
         <v>112</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="39">
+        <v>1211572</v>
+      </c>
       <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="D8" s="40">
+        <v>1211681</v>
+      </c>
       <c r="E8" s="33" t="s">
         <v>37</v>
       </c>
@@ -2761,7 +2795,9 @@
       <c r="A12" s="33">
         <v>213</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="39">
+        <v>1211681</v>
+      </c>
       <c r="C12" s="39"/>
       <c r="D12" s="40"/>
       <c r="E12" s="33" t="s">
@@ -3005,7 +3041,9 @@
       <c r="A21" s="33">
         <v>406</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="39">
+        <v>1211572</v>
+      </c>
       <c r="C21" s="39"/>
       <c r="D21" s="40"/>
       <c r="E21" s="33" t="s">
@@ -3031,7 +3069,9 @@
       <c r="A22" s="33">
         <v>407</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="39">
+        <v>1211572</v>
+      </c>
       <c r="C22" s="39"/>
       <c r="D22" s="40"/>
       <c r="E22" s="33" t="s">
@@ -3057,7 +3097,9 @@
       <c r="A23" s="33">
         <v>408</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="39">
+        <v>1211681</v>
+      </c>
       <c r="C23" s="39"/>
       <c r="D23" s="40"/>
       <c r="E23" s="33" t="s">
@@ -3252,7 +3294,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsaf\Desktop\SEM3\sem3pi2022_23_g063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Documentos\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A56FC88-7835-418A-8356-239A9D93B1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA951E7-166E-4ABA-AD95-5F75DD05C969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1826,37 +1826,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="19" width="7.69921875" customWidth="1"/>
+    <col min="4" max="19" width="7.6640625" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1865,12 +1865,12 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="E8" s="61" t="s">
@@ -1892,7 +1892,7 @@
       <c r="S8" s="61"/>
       <c r="T8" s="61"/>
     </row>
-    <row r="9" spans="1:20" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="106.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="7">
@@ -1959,7 +1959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="62"/>
       <c r="C11" s="16">
         <v>1190624</v>
@@ -2011,7 +2011,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="62"/>
       <c r="C12" s="16">
         <v>1211572</v>
@@ -2048,17 +2048,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="62"/>
       <c r="C13" s="16">
         <v>1221692</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16"/>
+      <c r="D13" s="16">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16">
+        <v>4</v>
+      </c>
+      <c r="F13" s="17">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18">
+        <v>4</v>
+      </c>
+      <c r="I13" s="16">
+        <v>4</v>
+      </c>
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
       <c r="L13" s="16"/>
@@ -2068,12 +2080,12 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="19"/>
-      <c r="S13" s="20" t="e">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="62"/>
       <c r="C14" s="16">
         <v>1211681</v>
@@ -2110,7 +2122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" s="62"/>
       <c r="C15" s="16">
         <v>1211184</v>
@@ -2147,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" s="62"/>
       <c r="C16" s="16" t="s">
         <v>7</v>
@@ -2172,7 +2184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B17" s="62"/>
       <c r="C17" s="16" t="s">
         <v>8</v>
@@ -2197,7 +2209,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B18" s="62"/>
       <c r="C18" s="16" t="s">
         <v>9</v>
@@ -2222,7 +2234,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B19" s="62"/>
       <c r="C19" s="16" t="s">
         <v>10</v>
@@ -2247,7 +2259,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B20" s="62"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
@@ -2272,7 +2284,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B21" s="62"/>
       <c r="C21" s="16" t="s">
         <v>12</v>
@@ -2297,7 +2309,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="62"/>
       <c r="C22" s="16" t="s">
         <v>13</v>
@@ -2322,7 +2334,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B23" s="62"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
@@ -2347,7 +2359,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B24" s="62"/>
       <c r="C24" s="22" t="s">
         <v>15</v>
@@ -2372,7 +2384,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="10" t="s">
         <v>5</v>
@@ -2383,7 +2395,7 @@
       </c>
       <c r="E25" s="26">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="F25" s="26">
         <f t="shared" si="1"/>
@@ -2399,7 +2411,7 @@
       </c>
       <c r="I25" s="26">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="J25" s="26" t="e">
         <f t="shared" si="1"/>
@@ -2439,27 +2451,27 @@
       </c>
       <c r="S25" s="28"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2467,7 +2479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2475,7 +2487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2483,7 +2495,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2491,7 +2503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2528,24 +2540,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A6" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>27</v>
       </c>
@@ -2577,7 +2589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="63"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
@@ -2601,7 +2613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -2625,7 +2637,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="33">
         <v>110</v>
       </c>
@@ -2655,7 +2667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>111</v>
       </c>
@@ -2683,7 +2695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="33">
         <v>112</v>
       </c>
@@ -2713,7 +2725,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>210</v>
       </c>
@@ -2739,7 +2751,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="33">
         <v>211</v>
       </c>
@@ -2765,11 +2777,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="33">
         <v>212</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="39">
+        <v>1221692</v>
+      </c>
       <c r="C11" s="39"/>
       <c r="D11" s="40"/>
       <c r="E11" s="33" t="s">
@@ -2791,7 +2805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
         <v>213</v>
       </c>
@@ -2819,7 +2833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
         <v>214</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
         <v>215</v>
       </c>
@@ -2875,7 +2889,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
         <v>216</v>
       </c>
@@ -2903,7 +2917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
         <v>307</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
         <v>308</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
         <v>309</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
         <v>310</v>
       </c>
@@ -3011,7 +3025,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="33">
         <v>311</v>
       </c>
@@ -3037,7 +3051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>406</v>
       </c>
@@ -3065,7 +3079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="33">
         <v>407</v>
       </c>
@@ -3093,7 +3107,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="33">
         <v>408</v>
       </c>
@@ -3121,11 +3135,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="33">
         <v>409</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="39">
+        <v>1221692</v>
+      </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
       <c r="E24" s="33" t="s">
@@ -3147,7 +3163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="36"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3293,28 +3309,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="2" customWidth="1"/>
-    <col min="3" max="17" width="5.69921875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" style="2" customWidth="1"/>
-    <col min="19" max="20" width="16.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="16.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="2" customWidth="1"/>
     <col min="22" max="22" width="17" style="2" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16.19921875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.1640625" style="2" customWidth="1"/>
     <col min="25" max="25" width="11" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.19921875" style="2" customWidth="1"/>
-    <col min="27" max="28" width="7.19921875" style="2" customWidth="1"/>
-    <col min="29" max="1024" width="10.69921875" style="2"/>
+    <col min="26" max="26" width="8.1640625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="7.1640625" style="2" customWidth="1"/>
+    <col min="29" max="1024" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3333,7 +3349,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
@@ -3434,7 +3450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>48</v>
       </c>
@@ -3526,7 +3542,7 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="35"/>
     </row>
-    <row r="5" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="62" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>50</v>
       </c>
@@ -3573,7 +3589,7 @@
       <c r="Y5" s="34"/>
       <c r="Z5" s="35"/>
     </row>
-    <row r="6" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>57</v>
       </c>
@@ -3620,7 +3636,7 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="35"/>
     </row>
-    <row r="7" spans="1:26" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>64</v>
       </c>
@@ -3667,7 +3683,7 @@
       <c r="Y7" s="34"/>
       <c r="Z7" s="35"/>
     </row>
-    <row r="8" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -3714,7 +3730,7 @@
       <c r="Y8" s="34"/>
       <c r="Z8" s="35"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>76</v>
       </c>
@@ -3792,7 +3808,7 @@
       <c r="Y9" s="34"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>77</v>
       </c>
@@ -3867,7 +3883,7 @@
       <c r="Y10" s="37"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="56"/>
     </row>
   </sheetData>
@@ -3886,26 +3902,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ17"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" style="2" customWidth="1"/>
-    <col min="3" max="17" width="5.69921875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.19921875" style="2" customWidth="1"/>
-    <col min="19" max="20" width="16.19921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="2" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="2" customWidth="1"/>
+    <col min="19" max="20" width="16.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="2" customWidth="1"/>
-    <col min="22" max="24" width="20.69921875" style="2" customWidth="1"/>
+    <col min="22" max="24" width="20.6640625" style="2" customWidth="1"/>
     <col min="25" max="25" width="11" style="2" customWidth="1"/>
-    <col min="26" max="26" width="8.19921875" style="2" customWidth="1"/>
-    <col min="27" max="28" width="7.19921875" style="2" customWidth="1"/>
-    <col min="29" max="1024" width="10.69921875" style="2"/>
+    <col min="26" max="26" width="8.1640625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="7.1640625" style="2" customWidth="1"/>
+    <col min="29" max="1024" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -3924,7 +3940,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="46"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
       <c r="A3" s="47" t="s">
         <v>45</v>
       </c>
@@ -4025,7 +4041,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
         <v>79</v>
       </c>
@@ -4072,7 +4088,7 @@
       <c r="Y4" s="60"/>
       <c r="Z4" s="35"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>86</v>
       </c>
@@ -4119,7 +4135,7 @@
       <c r="Y5" s="60"/>
       <c r="Z5" s="35"/>
     </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
         <v>93</v>
       </c>
@@ -4166,7 +4182,7 @@
       <c r="Y6" s="60"/>
       <c r="Z6" s="35"/>
     </row>
-    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>100</v>
       </c>
@@ -4213,7 +4229,7 @@
       <c r="Y7" s="60"/>
       <c r="Z7" s="35"/>
     </row>
-    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="62" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
         <v>106</v>
       </c>
@@ -4260,7 +4276,7 @@
       <c r="Y8" s="60"/>
       <c r="Z8" s="35"/>
     </row>
-    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>112</v>
       </c>
@@ -4303,7 +4319,7 @@
       <c r="Y9" s="60"/>
       <c r="Z9" s="35"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
         <v>117</v>
       </c>
@@ -4350,7 +4366,7 @@
       <c r="Y10" s="60"/>
       <c r="Z10" s="35"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
         <v>123</v>
       </c>
@@ -4397,7 +4413,7 @@
       <c r="Y11" s="60"/>
       <c r="Z11" s="35"/>
     </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
@@ -4444,7 +4460,7 @@
       <c r="Y12" s="60"/>
       <c r="Z12" s="35"/>
     </row>
-    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
         <v>130</v>
       </c>
@@ -4491,7 +4507,7 @@
       <c r="Y13" s="60"/>
       <c r="Z13" s="35"/>
     </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>137</v>
       </c>
@@ -4538,7 +4554,7 @@
       <c r="Y14" s="60"/>
       <c r="Z14" s="35"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
@@ -4616,7 +4632,7 @@
       <c r="Y15" s="34"/>
       <c r="Z15" s="35"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="36" t="s">
         <v>77</v>
       </c>
@@ -4691,7 +4707,7 @@
       <c r="Y16" s="37"/>
       <c r="Z16" s="38"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="56"/>
     </row>
   </sheetData>

--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Desktop\Faculdade\2_ano\SEM3_PI\sem3pi2022_23_g063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsaf\Desktop\SEM3\sem3pi2022_23_g063\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2ADBE7-A6C3-4A9D-BCA8-9A61748A692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C21A175-917C-4F0F-A3FA-FE6C25229616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -28,17 +28,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1237,7 +1226,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1873,33 +1862,33 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1908,13 +1897,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
       <c r="E8" s="65" t="s">
@@ -1936,7 +1925,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -2003,7 +1992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -2030,7 +2019,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1190624</v>
@@ -2055,7 +2044,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1211572</v>
@@ -2092,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221692</v>
@@ -2129,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1211681</v>
@@ -2166,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63"/>
       <c r="C15" s="8">
         <v>1211184</v>
@@ -2203,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2228,7 +2217,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2253,7 +2242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2278,7 +2267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2303,7 +2292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2328,7 +2317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2353,7 +2342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2378,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2403,7 +2392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>15</v>
@@ -2428,7 +2417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2495,27 +2484,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2523,7 +2512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2531,7 +2520,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2539,7 +2528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2547,7 +2536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2555,7 +2544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2584,25 +2573,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>27</v>
       </c>
@@ -2634,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2658,7 +2647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2682,14 +2671,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>110</v>
       </c>
       <c r="B6" s="29">
         <v>1211681</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="29">
+        <v>4</v>
+      </c>
       <c r="D6" s="59"/>
       <c r="E6" s="31" t="s">
         <v>37</v>
@@ -2710,7 +2701,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>111</v>
       </c>
@@ -2738,7 +2729,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>112</v>
       </c>
@@ -2766,7 +2757,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>210</v>
       </c>
@@ -2792,7 +2783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>211</v>
       </c>
@@ -2818,7 +2809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>212</v>
       </c>
@@ -2846,14 +2837,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>213</v>
       </c>
       <c r="B12" s="29">
         <v>1211681</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
       <c r="D12" s="59"/>
       <c r="E12" s="14" t="s">
         <v>37</v>
@@ -2874,7 +2867,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>214</v>
       </c>
@@ -2904,7 +2897,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>215</v>
       </c>
@@ -2934,7 +2927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>216</v>
       </c>
@@ -2964,7 +2957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>307</v>
       </c>
@@ -2994,7 +2987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>308</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>309</v>
       </c>
@@ -3050,7 +3043,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>310</v>
       </c>
@@ -3076,7 +3069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>311</v>
       </c>
@@ -3102,7 +3095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>406</v>
       </c>
@@ -3130,7 +3123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>407</v>
       </c>
@@ -3158,14 +3151,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>408</v>
       </c>
       <c r="B23" s="29">
         <v>1211681</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="29">
+        <v>4</v>
+      </c>
       <c r="D23" s="59"/>
       <c r="E23" s="14" t="s">
         <v>37</v>
@@ -3186,7 +3181,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>409</v>
       </c>
@@ -3302,28 +3297,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
@@ -3342,8 +3337,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -3455,7 +3450,9 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25">
+        <v>5</v>
+      </c>
       <c r="H4" s="25">
         <v>5</v>
       </c>
@@ -3493,7 +3490,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -3504,7 +3501,9 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
       <c r="H5" s="25">
         <v>4</v>
       </c>
@@ -3519,7 +3518,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>57</v>
@@ -3542,7 +3541,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -3553,7 +3552,9 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
       <c r="H6" s="25">
         <v>4</v>
       </c>
@@ -3591,7 +3592,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
@@ -3602,7 +3603,9 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
       <c r="H7" s="25">
         <v>5</v>
       </c>
@@ -3617,7 +3620,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>70</v>
@@ -3640,7 +3643,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -3666,7 +3669,7 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
@@ -3718,7 +3721,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>75</v>
       </c>
@@ -3741,7 +3744,7 @@
       </c>
       <c r="G9" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="H9" s="23">
         <f t="shared" si="2"/>
@@ -3793,7 +3796,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3812,26 +3815,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
@@ -3850,7 +3853,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3951,7 +3954,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -3962,7 +3965,9 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="25">
+        <v>5</v>
+      </c>
       <c r="H4" s="25">
         <v>5</v>
       </c>
@@ -4000,7 +4005,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
@@ -4011,7 +4016,9 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="G5" s="25">
+        <v>4</v>
+      </c>
       <c r="H5" s="25">
         <v>4</v>
       </c>
@@ -4049,7 +4056,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -4060,7 +4067,9 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="25">
+        <v>4</v>
+      </c>
       <c r="H6" s="25">
         <v>4</v>
       </c>
@@ -4098,7 +4107,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
@@ -4109,7 +4118,9 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="25">
+        <v>4</v>
+      </c>
       <c r="H7" s="25">
         <v>5</v>
       </c>
@@ -4124,7 +4135,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S7" s="58" t="s">
         <v>92</v>
@@ -4147,7 +4158,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -4158,7 +4169,9 @@
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="25">
+        <v>4</v>
+      </c>
       <c r="H8" s="25">
         <v>4</v>
       </c>
@@ -4196,7 +4209,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -4207,7 +4220,9 @@
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="G9" s="25">
+        <v>5</v>
+      </c>
       <c r="H9" s="25">
         <v>5</v>
       </c>
@@ -4241,7 +4256,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
@@ -4252,7 +4267,9 @@
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25">
+        <v>4</v>
+      </c>
       <c r="H10" s="25">
         <v>5</v>
       </c>
@@ -4267,7 +4284,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="54">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S10" s="58" t="s">
         <v>111</v>
@@ -4290,7 +4307,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>121</v>
       </c>
@@ -4301,7 +4318,9 @@
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="25">
+        <v>4</v>
+      </c>
       <c r="H11" s="25">
         <v>5</v>
       </c>
@@ -4316,7 +4335,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="54">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S11" s="58" t="s">
         <v>111</v>
@@ -4339,7 +4358,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>127</v>
       </c>
@@ -4350,7 +4369,9 @@
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="25">
+        <v>4</v>
+      </c>
       <c r="H12" s="25">
         <v>5</v>
       </c>
@@ -4365,7 +4386,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S12" s="58" t="s">
         <v>111</v>
@@ -4388,7 +4409,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
@@ -4399,7 +4420,9 @@
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="25">
+        <v>5</v>
+      </c>
       <c r="H13" s="25">
         <v>5</v>
       </c>
@@ -4437,7 +4460,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
@@ -4448,7 +4471,9 @@
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="25">
+        <v>4</v>
+      </c>
       <c r="H14" s="25">
         <v>5</v>
       </c>
@@ -4463,7 +4488,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="54">
         <f>AVERAGE(C14:Q14)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>111</v>
@@ -4486,7 +4511,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -4512,7 +4537,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
@@ -4564,7 +4589,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
@@ -4587,7 +4612,7 @@
       </c>
       <c r="G16" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H16" s="23">
         <f t="shared" si="5"/>
@@ -4639,7 +4664,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4654,9 +4679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4844,26 +4872,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4887,9 +4904,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsaf\Desktop\SEM3\sem3pi2022_23_g063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Imagens\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C21A175-917C-4F0F-A3FA-FE6C25229616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7E065A-B40A-4908-B3F5-ADDA66CC8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1226,7 +1237,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
+    <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -1862,33 +1873,33 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.8984375" customWidth="1"/>
+    <col min="4" max="19" width="7.9140625" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1897,13 +1908,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
       <c r="E8" s="65" t="s">
@@ -1925,7 +1936,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1992,7 +2003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2030,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1190624</v>
@@ -2044,7 +2055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1211572</v>
@@ -2081,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221692</v>
@@ -2118,7 +2129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1211681</v>
@@ -2155,7 +2166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="63"/>
       <c r="C15" s="8">
         <v>1211184</v>
@@ -2192,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2217,7 +2228,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2242,7 +2253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2267,7 +2278,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2292,7 +2303,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2317,7 +2328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2342,7 +2353,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2367,7 +2378,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2392,7 +2403,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>15</v>
@@ -2417,7 +2428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2484,27 +2495,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2512,7 +2523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2520,7 +2531,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2536,7 +2547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2544,7 +2555,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2573,25 +2584,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2647,7 +2658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2671,7 +2682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>110</v>
       </c>
@@ -2701,7 +2712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>111</v>
       </c>
@@ -2729,7 +2740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>112</v>
       </c>
@@ -2757,7 +2768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>210</v>
       </c>
@@ -2783,7 +2794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>211</v>
       </c>
@@ -2809,14 +2820,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>212</v>
       </c>
       <c r="B11" s="29">
         <v>1221692</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
       <c r="D11" s="59"/>
       <c r="E11" s="14" t="s">
         <v>37</v>
@@ -2837,7 +2850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>213</v>
       </c>
@@ -2867,7 +2880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>214</v>
       </c>
@@ -2897,7 +2910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>215</v>
       </c>
@@ -2927,7 +2940,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>216</v>
       </c>
@@ -2957,7 +2970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>307</v>
       </c>
@@ -2987,7 +3000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>308</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>309</v>
       </c>
@@ -3043,7 +3056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>310</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>311</v>
       </c>
@@ -3095,7 +3108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>406</v>
       </c>
@@ -3123,7 +3136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>407</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>408</v>
       </c>
@@ -3181,14 +3194,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>409</v>
       </c>
       <c r="B24" s="29">
         <v>1221692</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="29">
+        <v>5</v>
+      </c>
       <c r="D24" s="59"/>
       <c r="E24" s="14" t="s">
         <v>37</v>
@@ -3297,28 +3312,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.58203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
@@ -3337,8 +3352,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -3449,7 +3464,9 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>5</v>
+      </c>
       <c r="G4" s="25">
         <v>5</v>
       </c>
@@ -3490,7 +3507,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -3500,7 +3517,9 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
       <c r="G5" s="25">
         <v>3</v>
       </c>
@@ -3518,7 +3537,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>57</v>
@@ -3541,7 +3560,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -3551,7 +3570,9 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
       <c r="G6" s="25">
         <v>4</v>
       </c>
@@ -3592,7 +3613,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="93" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
@@ -3602,7 +3623,9 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
       <c r="G7" s="25">
         <v>4</v>
       </c>
@@ -3620,7 +3643,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>70</v>
@@ -3643,7 +3666,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -3665,7 +3688,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -3721,7 +3744,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
         <v>75</v>
       </c>
@@ -3740,7 +3763,7 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="G9" s="23">
         <f t="shared" si="2"/>
@@ -3796,7 +3819,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3815,26 +3838,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.58203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.58203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.8984375" style="1"/>
+    <col min="26" max="26" width="8.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
@@ -3853,7 +3876,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3954,7 +3977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -3964,7 +3987,9 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>5</v>
+      </c>
       <c r="G4" s="25">
         <v>5</v>
       </c>
@@ -4005,7 +4030,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
@@ -4015,7 +4040,9 @@
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25">
+        <v>4</v>
+      </c>
       <c r="G5" s="25">
         <v>4</v>
       </c>
@@ -4056,7 +4083,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -4066,7 +4093,9 @@
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
       <c r="G6" s="25">
         <v>4</v>
       </c>
@@ -4107,7 +4136,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
@@ -4117,7 +4146,9 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
       <c r="G7" s="25">
         <v>4</v>
       </c>
@@ -4135,7 +4166,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S7" s="58" t="s">
         <v>92</v>
@@ -4158,7 +4189,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -4168,7 +4199,9 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25">
+        <v>3</v>
+      </c>
       <c r="G8" s="25">
         <v>4</v>
       </c>
@@ -4186,7 +4219,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="54">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S8" s="58" t="s">
         <v>92</v>
@@ -4209,7 +4242,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -4219,7 +4252,9 @@
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25">
+        <v>4</v>
+      </c>
       <c r="G9" s="25">
         <v>5</v>
       </c>
@@ -4237,7 +4272,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="54">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="S9" s="58" t="s">
         <v>111</v>
@@ -4256,7 +4291,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
@@ -4266,7 +4301,9 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25">
+        <v>4</v>
+      </c>
       <c r="G10" s="25">
         <v>4</v>
       </c>
@@ -4284,7 +4321,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="54">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S10" s="58" t="s">
         <v>111</v>
@@ -4307,7 +4344,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>121</v>
       </c>
@@ -4317,7 +4354,9 @@
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>4</v>
+      </c>
       <c r="G11" s="25">
         <v>4</v>
       </c>
@@ -4335,7 +4374,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="54">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S11" s="58" t="s">
         <v>111</v>
@@ -4358,7 +4397,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>127</v>
       </c>
@@ -4368,7 +4407,9 @@
       <c r="C12" s="25"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>4</v>
+      </c>
       <c r="G12" s="25">
         <v>4</v>
       </c>
@@ -4386,7 +4427,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S12" s="58" t="s">
         <v>111</v>
@@ -4409,7 +4450,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
@@ -4419,7 +4460,9 @@
       <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>5</v>
+      </c>
       <c r="G13" s="25">
         <v>5</v>
       </c>
@@ -4460,7 +4503,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
@@ -4470,7 +4513,9 @@
       <c r="C14" s="25"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>4</v>
+      </c>
       <c r="G14" s="25">
         <v>4</v>
       </c>
@@ -4488,7 +4533,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="54">
         <f>AVERAGE(C14:Q14)</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>111</v>
@@ -4511,7 +4556,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -4533,7 +4578,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -4589,7 +4634,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
@@ -4608,7 +4653,7 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="5"/>
@@ -4664,7 +4709,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4688,6 +4733,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4871,12 +4922,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
@@ -4886,6 +4931,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4901,20 +4962,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\OneDrive\Imagens\Nova pasta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pastas\ISEP\LAPR3 2022\sem3pi2022_23_g063\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7E065A-B40A-4908-B3F5-ADDA66CC8660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D8DD8-B904-41F5-9102-D044DE3EDE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1869,52 +1869,54 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.9140625" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="6">
+        <v>63</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
       <c r="E8" s="65" t="s">
@@ -1936,7 +1938,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -2003,19 +2005,31 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="37">
         <v>1190326</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="E10" s="38">
+        <v>4</v>
+      </c>
+      <c r="F10" s="39">
+        <v>4</v>
+      </c>
+      <c r="G10" s="39">
+        <v>4</v>
+      </c>
+      <c r="H10" s="39">
+        <v>4</v>
+      </c>
+      <c r="I10" s="39">
+        <v>5</v>
+      </c>
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
@@ -2025,12 +2039,12 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="37"/>
-      <c r="S10" s="50" t="e">
+      <c r="S10" s="50">
         <f>AVERAGE(D10:R10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1190624</v>
@@ -2055,7 +2069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1211572</v>
@@ -2092,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221692</v>
@@ -2129,7 +2143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1211681</v>
@@ -2166,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63"/>
       <c r="C15" s="8">
         <v>1211184</v>
@@ -2203,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2228,7 +2242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2253,7 +2267,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2278,7 +2292,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2303,7 +2317,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2328,7 +2342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2353,7 +2367,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2378,7 +2392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2403,7 +2417,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>15</v>
@@ -2428,7 +2442,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2439,7 +2453,7 @@
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
@@ -2455,7 +2469,7 @@
       </c>
       <c r="I25" s="46">
         <f t="shared" si="1"/>
-        <v>4.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J25" s="46" t="e">
         <f t="shared" si="1"/>
@@ -2495,27 +2509,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2523,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2531,7 +2545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2539,7 +2553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2555,7 +2569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2584,25 +2598,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.08203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>27</v>
       </c>
@@ -2634,7 +2648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2658,7 +2672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2682,7 +2696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>110</v>
       </c>
@@ -2712,7 +2726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>111</v>
       </c>
@@ -2740,7 +2754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>112</v>
       </c>
@@ -2768,7 +2782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>210</v>
       </c>
@@ -2794,7 +2808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>211</v>
       </c>
@@ -2820,7 +2834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>212</v>
       </c>
@@ -2850,7 +2864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>213</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>214</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>215</v>
       </c>
@@ -2940,7 +2954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>216</v>
       </c>
@@ -2970,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>307</v>
       </c>
@@ -3000,7 +3014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>308</v>
       </c>
@@ -3030,12 +3044,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>309</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="29">
+        <v>1190326</v>
+      </c>
+      <c r="C18" s="29">
+        <v>4</v>
+      </c>
       <c r="D18" s="59"/>
       <c r="E18" s="14" t="s">
         <v>37</v>
@@ -3056,12 +3074,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>310</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="29">
+        <v>1190326</v>
+      </c>
+      <c r="C19" s="29">
+        <v>4</v>
+      </c>
       <c r="D19" s="59"/>
       <c r="E19" s="14" t="s">
         <v>37</v>
@@ -3082,7 +3104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>311</v>
       </c>
@@ -3108,7 +3130,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>406</v>
       </c>
@@ -3136,7 +3158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>407</v>
       </c>
@@ -3164,7 +3186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>408</v>
       </c>
@@ -3194,7 +3216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>409</v>
       </c>
@@ -3312,28 +3334,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.9140625" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
@@ -3352,8 +3374,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3454,14 +3476,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="17">
         <v>0.1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="25">
+        <v>5</v>
+      </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25">
@@ -3507,14 +3531,16 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="17">
         <v>0.2</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25">
@@ -3537,7 +3563,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>3.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>57</v>
@@ -3560,14 +3586,16 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="17">
         <v>0.5</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25">
+        <v>4</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25">
@@ -3613,14 +3641,16 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="93" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="17">
         <v>0.2</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25">
+        <v>5</v>
+      </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25">
@@ -3643,7 +3673,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>70</v>
@@ -3666,7 +3696,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -3676,7 +3706,7 @@
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:Q8" si="1">SUMPRODUCT(C4:C7,$B$4:$B$7)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
@@ -3744,14 +3774,14 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23">
         <f>C8/5*20</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:Q9" si="2">D8/5*20</f>
@@ -3819,7 +3849,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3838,26 +3868,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.9140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.58203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.58203125" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.9140625" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
@@ -3876,7 +3906,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3977,14 +4007,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="17">
         <v>0.1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="25">
+        <v>5</v>
+      </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25">
@@ -4030,14 +4062,16 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="17">
         <v>0.1</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25">
@@ -4083,14 +4117,16 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B6" s="17">
         <v>0.05</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="25">
+        <v>5</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25">
@@ -4113,7 +4149,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="54">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="S6" s="58" t="s">
         <v>92</v>
@@ -4136,14 +4172,16 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="17">
         <v>0.05</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="25">
+        <v>4</v>
+      </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25">
@@ -4166,7 +4204,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="S7" s="58" t="s">
         <v>92</v>
@@ -4189,14 +4227,16 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B8" s="17">
         <v>0.1</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="25">
+        <v>5</v>
+      </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25">
@@ -4219,7 +4259,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="54">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>3.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="S8" s="58" t="s">
         <v>92</v>
@@ -4242,14 +4282,16 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B9" s="17">
         <v>0.05</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25">
+        <v>5</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25">
@@ -4272,7 +4314,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="54">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="S9" s="58" t="s">
         <v>111</v>
@@ -4291,14 +4333,16 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B10" s="17">
         <v>0.1</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="25">
+        <v>5</v>
+      </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25">
@@ -4321,7 +4365,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="54">
         <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="S10" s="58" t="s">
         <v>111</v>
@@ -4344,14 +4388,16 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="17">
         <v>0.1</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="25">
+        <v>3</v>
+      </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25">
@@ -4374,7 +4420,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="54">
         <f t="shared" si="2"/>
-        <v>4.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="S11" s="58" t="s">
         <v>111</v>
@@ -4397,14 +4443,16 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>127</v>
       </c>
       <c r="B12" s="17">
         <v>0.1</v>
       </c>
-      <c r="C12" s="25"/>
+      <c r="C12" s="25">
+        <v>5</v>
+      </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25">
@@ -4427,7 +4475,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="S12" s="58" t="s">
         <v>111</v>
@@ -4450,14 +4498,16 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B13" s="17">
         <v>0.1</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="25">
+        <v>4</v>
+      </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
@@ -4480,7 +4530,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="54">
         <f t="shared" ref="R13" si="3">AVERAGE(C13:Q13)</f>
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="S13" s="58" t="s">
         <v>129</v>
@@ -4503,14 +4553,16 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B14" s="17">
         <v>0.15</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="25">
+        <v>5</v>
+      </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
@@ -4533,7 +4585,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="54">
         <f>AVERAGE(C14:Q14)</f>
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>111</v>
@@ -4556,7 +4608,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -4566,7 +4618,7 @@
       </c>
       <c r="C15" s="7">
         <f>SUMPRODUCT(C4:C14,$B$4:$B$14)</f>
-        <v>0</v>
+        <v>4.5499999999999989</v>
       </c>
       <c r="D15" s="7">
         <f>SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
@@ -4634,14 +4686,14 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23">
         <f>C15/5*20</f>
-        <v>0</v>
+        <v>18.199999999999996</v>
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
@@ -4709,7 +4761,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4733,12 +4785,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4922,6 +4968,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
@@ -4931,22 +4983,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4962,4 +4998,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/LAPR3-2022-Self-Assessment_Sprint2.xlsx
+++ b/LAPR3-2022-Self-Assessment_Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pastas\ISEP\LAPR3 2022\sem3pi2022_23_g063\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/78dab5d099cd5826/Documentos/ISEP/LAPR-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D8DD8-B904-41F5-9102-D044DE3EDE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{D44D8DD8-B904-41F5-9102-D044DE3EDE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55F5020-0802-4240-BA92-D308217AAA8A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="ItemEval">[1]!Table2[ItemEval]</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1869,37 +1869,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.8984375" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1910,13 +1910,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:20" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="61"/>
       <c r="E8" s="65" t="s">
@@ -1938,7 +1938,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -2005,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -2044,17 +2044,29 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1190624</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="35">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8">
+        <v>4</v>
+      </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
@@ -2064,12 +2076,12 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="51" t="e">
+      <c r="S11" s="51">
         <f t="shared" ref="S11:S24" si="0">AVERAGE(D11:R11)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1211572</v>
@@ -2106,7 +2118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221692</v>
@@ -2143,7 +2155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="63"/>
       <c r="C14" s="8">
         <v>1211681</v>
@@ -2180,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="63"/>
       <c r="C15" s="8">
         <v>1211184</v>
@@ -2217,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="63"/>
       <c r="C16" s="8" t="s">
         <v>7</v>
@@ -2242,7 +2254,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="63"/>
       <c r="C17" s="8" t="s">
         <v>8</v>
@@ -2267,7 +2279,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="63"/>
       <c r="C18" s="8" t="s">
         <v>9</v>
@@ -2292,7 +2304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="63"/>
       <c r="C19" s="8" t="s">
         <v>10</v>
@@ -2317,7 +2329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="63"/>
       <c r="C20" s="8" t="s">
         <v>11</v>
@@ -2342,7 +2354,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="63"/>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -2367,7 +2379,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="63"/>
       <c r="C22" s="8" t="s">
         <v>13</v>
@@ -2392,7 +2404,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="63"/>
       <c r="C23" s="8" t="s">
         <v>14</v>
@@ -2417,7 +2429,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="64"/>
       <c r="C24" s="40" t="s">
         <v>15</v>
@@ -2442,7 +2454,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2453,7 +2465,7 @@
       </c>
       <c r="E25" s="46">
         <f t="shared" ref="E25:R25" si="1">AVERAGE(E10:E24)</f>
-        <v>3.8</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
@@ -2469,7 +2481,7 @@
       </c>
       <c r="I25" s="46">
         <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="J25" s="46" t="e">
         <f t="shared" si="1"/>
@@ -2509,27 +2521,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2545,7 +2557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2553,7 +2565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2569,7 +2581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2598,25 +2610,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
         <v>27</v>
       </c>
@@ -2648,7 +2660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2672,7 +2684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2696,7 +2708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>110</v>
       </c>
@@ -2726,7 +2738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>111</v>
       </c>
@@ -2754,7 +2766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>112</v>
       </c>
@@ -2782,12 +2794,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>210</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="B9" s="29">
+        <v>1190624</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5</v>
+      </c>
       <c r="D9" s="59"/>
       <c r="E9" s="14" t="s">
         <v>37</v>
@@ -2808,12 +2824,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>211</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="29">
+        <v>1190624</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4</v>
+      </c>
       <c r="D10" s="59"/>
       <c r="E10" s="14" t="s">
         <v>37</v>
@@ -2834,7 +2854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>212</v>
       </c>
@@ -2864,7 +2884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>213</v>
       </c>
@@ -2894,7 +2914,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>214</v>
       </c>
@@ -2924,7 +2944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>215</v>
       </c>
@@ -2954,7 +2974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>216</v>
       </c>
@@ -2984,7 +3004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>307</v>
       </c>
@@ -3014,7 +3034,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>308</v>
       </c>
@@ -3044,7 +3064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>309</v>
       </c>
@@ -3074,7 +3094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>310</v>
       </c>
@@ -3104,7 +3124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>311</v>
       </c>
@@ -3130,7 +3150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>406</v>
       </c>
@@ -3158,7 +3178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>407</v>
       </c>
@@ -3186,7 +3206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>408</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>409</v>
       </c>
@@ -3334,28 +3354,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>
@@ -3374,8 +3394,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>49</v>
       </c>
@@ -3486,7 +3506,9 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25">
         <v>5</v>
@@ -3508,7 +3530,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>50</v>
@@ -3531,7 +3553,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>56</v>
       </c>
@@ -3541,7 +3563,9 @@
       <c r="C5" s="25">
         <v>0</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25">
         <v>3</v>
@@ -3563,7 +3587,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>57</v>
@@ -3586,7 +3610,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="78" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>63</v>
       </c>
@@ -3596,7 +3620,9 @@
       <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25">
         <v>4</v>
@@ -3641,7 +3667,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>69</v>
       </c>
@@ -3651,7 +3677,9 @@
       <c r="C7" s="25">
         <v>5</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25">
         <v>4</v>
@@ -3673,7 +3701,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="27">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>70</v>
@@ -3696,7 +3724,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -3710,7 +3738,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
@@ -3774,7 +3802,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>75</v>
       </c>
@@ -3785,7 +3813,7 @@
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:Q9" si="2">D8/5*20</f>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="E9" s="23">
         <f t="shared" si="2"/>
@@ -3849,7 +3877,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3868,26 +3896,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.59765625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.59765625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
@@ -3906,7 +3934,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
@@ -4007,7 +4035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>77</v>
       </c>
@@ -4017,7 +4045,9 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
       <c r="E4" s="25"/>
       <c r="F4" s="25">
         <v>5</v>
@@ -4062,7 +4092,7 @@
       <c r="Y4" s="55"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>84</v>
       </c>
@@ -4072,7 +4102,9 @@
       <c r="C5" s="25">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
       <c r="E5" s="25"/>
       <c r="F5" s="25">
         <v>4</v>
@@ -4117,7 +4149,7 @@
       <c r="Y5" s="55"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>91</v>
       </c>
@@ -4127,7 +4159,9 @@
       <c r="C6" s="25">
         <v>5</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25">
         <v>4</v>
@@ -4149,7 +4183,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="54">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="S6" s="58" t="s">
         <v>92</v>
@@ -4172,7 +4206,7 @@
       <c r="Y6" s="55"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>98</v>
       </c>
@@ -4182,7 +4216,9 @@
       <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25">
         <v>4</v>
@@ -4204,7 +4240,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="54">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="S7" s="58" t="s">
         <v>92</v>
@@ -4227,7 +4263,7 @@
       <c r="Y7" s="55"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>104</v>
       </c>
@@ -4237,7 +4273,9 @@
       <c r="C8" s="25">
         <v>5</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25">
         <v>3</v>
@@ -4259,7 +4297,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="54">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="S8" s="58" t="s">
         <v>92</v>
@@ -4282,7 +4320,7 @@
       <c r="Y8" s="55"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>110</v>
       </c>
@@ -4292,7 +4330,9 @@
       <c r="C9" s="25">
         <v>5</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25">
         <v>4</v>
@@ -4314,7 +4354,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="54">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4.75</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S9" s="58" t="s">
         <v>111</v>
@@ -4333,7 +4373,7 @@
       <c r="Y9" s="55"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>115</v>
       </c>
@@ -4343,7 +4383,9 @@
       <c r="C10" s="25">
         <v>5</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25">
         <v>4</v>
@@ -4365,7 +4407,7 @@
       <c r="Q10" s="25"/>
       <c r="R10" s="54">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S10" s="58" t="s">
         <v>111</v>
@@ -4388,7 +4430,7 @@
       <c r="Y10" s="55"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>121</v>
       </c>
@@ -4398,7 +4440,9 @@
       <c r="C11" s="25">
         <v>3</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25">
+        <v>4</v>
+      </c>
       <c r="E11" s="25"/>
       <c r="F11" s="25">
         <v>4</v>
@@ -4443,7 +4487,7 @@
       <c r="Y11" s="55"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>127</v>
       </c>
@@ -4453,7 +4497,9 @@
       <c r="C12" s="25">
         <v>5</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25">
         <v>4</v>
@@ -4475,7 +4521,7 @@
       <c r="Q12" s="25"/>
       <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S12" s="58" t="s">
         <v>111</v>
@@ -4498,7 +4544,7 @@
       <c r="Y12" s="55"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>128</v>
       </c>
@@ -4508,7 +4554,9 @@
       <c r="C13" s="25">
         <v>4</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25">
         <v>5</v>
@@ -4530,7 +4578,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="54">
         <f t="shared" ref="R13" si="3">AVERAGE(C13:Q13)</f>
-        <v>4.75</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S13" s="58" t="s">
         <v>129</v>
@@ -4553,7 +4601,7 @@
       <c r="Y13" s="55"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
@@ -4563,7 +4611,9 @@
       <c r="C14" s="25">
         <v>5</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>4</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25">
         <v>4</v>
@@ -4585,7 +4635,7 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="54">
         <f>AVERAGE(C14:Q14)</f>
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S14" s="58" t="s">
         <v>111</v>
@@ -4608,7 +4658,7 @@
       <c r="Y14" s="55"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>45</v>
       </c>
@@ -4622,7 +4672,7 @@
       </c>
       <c r="D15" s="7">
         <f>SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
-        <v>0</v>
+        <v>3.9499999999999997</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" ref="E15:Q15" si="4">SUMPRODUCT(E4:E14,$B$4:$B$14)</f>
@@ -4686,7 +4736,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>75</v>
       </c>
@@ -4697,7 +4747,7 @@
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
-        <v>0</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
@@ -4761,7 +4811,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4785,6 +4835,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4968,12 +5024,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
@@ -4983,6 +5033,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4998,20 +5064,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>